--- a/ratings_hu.xlsx
+++ b/ratings_hu.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <x:si>
     <x:t xml:space="preserve">ID</x:t>
   </x:si>
@@ -301,6 +301,9 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Xy</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">G</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -397,8 +400,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:BF22" insertRow="1" totalsRowShown="0">
-  <x:autoFilter ref="A1:BF22"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:BF23" insertRow="1" totalsRowShown="0">
+  <x:autoFilter ref="A1:BF23"/>
   <x:tableColumns count="58">
     <x:tableColumn id="1" uniqueName="1" name="ID" dataDxfId="0"/>
     <x:tableColumn id="2" uniqueName="2" name="Start time" dataDxfId="3"/>
@@ -4658,11 +4661,185 @@
         <x:v>64</x:v>
       </x:c>
     </x:row>
+    <x:row r="23" hidden="0">
+      <x:c r="A23">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B23" s="2">
+        <x:v>45864.0633101852</x:v>
+      </x:c>
+      <x:c r="C23" s="2">
+        <x:v>45864.0684606481</x:v>
+      </x:c>
+      <x:c r="D23" s="10" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E23" s="10" t="s"/>
+      <x:c r="F23" s="10" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="G23" s="10" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H23" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="I23" s="10" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="J23" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="K23" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="L23" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="M23" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="N23" s="10" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="O23" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="P23" s="10" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="Q23" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="R23" s="10" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="S23" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="T23" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="U23" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="V23" s="10" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="W23" s="10" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="X23" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="Y23" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="Z23" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="AA23" s="10" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AB23" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AC23" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="AD23" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="AE23" s="10" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AF23" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="AG23" s="10" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="AH23" s="10" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="AI23" s="10" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="AJ23" s="10" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="AK23" s="10" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="AL23" s="10" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AM23" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AN23" s="10" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="AO23" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="AP23" s="10" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AQ23" s="10" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="AR23" s="10" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="AS23" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AT23" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AU23" s="10" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="AV23" s="10" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="AW23" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AX23" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="AY23" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="AZ23" s="10" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="BA23" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="BB23" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="BC23" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="BD23" s="10" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="BE23" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="BF23" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <x:tableParts count="1">
-    <x:tablePart r:id="R6b11a179090e495e"/>
+    <x:tablePart r:id="Rcd826eb2e84a4b54"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/ratings_hu.xlsx
+++ b/ratings_hu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parti\Projects\occupational-bias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B8F759-2320-4712-8235-F01918489337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E34ADE1-0AFA-46F4-99AA-59152C9FC230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7230" yWindow="-16297" windowWidth="28995" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="-5303" windowWidth="28995" windowHeight="15676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -282,34 +282,34 @@
     <t>5fd7cd077541e708f2a10aed</t>
   </si>
   <si>
-    <t>KR</t>
-  </si>
-  <si>
     <t>60390dd01c38de312b32bbae</t>
   </si>
   <si>
     <t>5c58954591c0ad0001cffb59</t>
   </si>
   <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>PZ</t>
-  </si>
-  <si>
-    <t>HM</t>
-  </si>
-  <si>
-    <t>XY</t>
-  </si>
-  <si>
-    <t>KG</t>
-  </si>
-  <si>
-    <t>PP</t>
-  </si>
-  <si>
-    <t>BS</t>
+    <t>Anon1</t>
+  </si>
+  <si>
+    <t>Anon2</t>
+  </si>
+  <si>
+    <t>Anon3</t>
+  </si>
+  <si>
+    <t>Anon4</t>
+  </si>
+  <si>
+    <t>Anon5</t>
+  </si>
+  <si>
+    <t>Anon6</t>
+  </si>
+  <si>
+    <t>Anon7</t>
+  </si>
+  <si>
+    <t>Anon8</t>
   </si>
 </sst>
 </file>
@@ -317,7 +317,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -350,7 +350,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,10 +522,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -910,12 +910,14 @@
   <dimension ref="A1:BF25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="58" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="58" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.35">
@@ -3530,7 +3532,7 @@
         <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
         <v>73</v>
@@ -3703,7 +3705,7 @@
         <v>58</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s">
         <v>60</v>
@@ -3876,7 +3878,7 @@
         <v>58</v>
       </c>
       <c r="F18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G18" t="s">
         <v>70</v>
@@ -4049,7 +4051,7 @@
         <v>58</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s">
         <v>70</v>
@@ -4222,7 +4224,7 @@
         <v>58</v>
       </c>
       <c r="F20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s">
         <v>60</v>
@@ -4395,7 +4397,7 @@
         <v>58</v>
       </c>
       <c r="F21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s">
         <v>60</v>
@@ -4914,7 +4916,7 @@
         <v>58</v>
       </c>
       <c r="F24" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G24" t="s">
         <v>60</v>
@@ -5087,7 +5089,7 @@
         <v>58</v>
       </c>
       <c r="F25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G25" t="s">
         <v>60</v>
